--- a/data/trans_orig/Q20C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>6.508419181404506</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.150611677398532</v>
+        <v>8.15061167739853</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>4.50148531374251</v>
@@ -693,7 +693,7 @@
         <v>7.736846442287122</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.223974956655215</v>
+        <v>7.223974956655218</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.688734604276159</v>
+        <v>1.84545519636889</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.853604254714882</v>
+        <v>4.646898945556877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.156722477917794</v>
+        <v>4.800458129610876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.36613344648813</v>
+        <v>3.312673036031896</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.001284627834931</v>
+        <v>2.01929227949785</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.513591164178496</v>
+        <v>2.49423013768455</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.238359598727342</v>
+        <v>3.595415122192055</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.096824057805877</v>
+        <v>3.920789291274183</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.496460358521601</v>
+        <v>2.536223250057208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.031622401013379</v>
+        <v>3.847150692265383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5.042841597473327</v>
+        <v>5.199437201326423</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>4.228110520650001</v>
+        <v>4.402559075518658</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.72545205287793</v>
+        <v>16.86194753357215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.81948705652046</v>
+        <v>14.73488394379775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.98286981067699</v>
+        <v>14.56811623099211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.26743149229317</v>
+        <v>14.95360156357033</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.733726111076371</v>
+        <v>6.893137166520413</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.994015014428292</v>
+        <v>5.009893002415964</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.33845322802438</v>
+        <v>11.80364278537605</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.811592625214</v>
+        <v>18.46587927496363</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.604552341289381</v>
+        <v>9.358696840586815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9.311014518159991</v>
+        <v>9.398441730600062</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.80450621522631</v>
+        <v>12.30619184500261</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>13.58394873478805</v>
+        <v>13.86693518998118</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>5.375170177276252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.240097890466494</v>
+        <v>9.240097890466497</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>4.181097609912526</v>
@@ -829,7 +829,7 @@
         <v>5.368059652767641</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>6.601997986048254</v>
+        <v>6.601997986048253</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.663064566599832</v>
+        <v>1.767703357824748</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.756788587209126</v>
+        <v>2.950167033215855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.448751768191544</v>
+        <v>3.544352641753942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.863155798725649</v>
+        <v>4.954737266321281</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.76093845896427</v>
+        <v>2.770609885735495</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.965760660021391</v>
+        <v>5.020004678584094</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.28941122283764</v>
+        <v>3.17181075199513</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.564977180084705</v>
+        <v>2.588678207346307</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.90686301105898</v>
+        <v>2.782464472696617</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4.648331179627381</v>
+        <v>4.636418635145227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.853956501239431</v>
+        <v>3.79685666717562</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>4.165158874846617</v>
+        <v>3.912285808783765</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.570903736628028</v>
+        <v>4.48665554029355</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.03355244842139</v>
+        <v>11.44096221764292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.169635185852147</v>
+        <v>9.051359828010645</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.56490276176995</v>
+        <v>15.24381589229309</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.795067069649822</v>
+        <v>5.93828903747363</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>10.09318845719787</v>
+        <v>10.06758543109135</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.969723137664793</v>
+        <v>7.508159094115805</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>4.3243068130899</v>
+        <v>4.355513657017905</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.09623283219845</v>
+        <v>4.896403521347056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9.365433318575413</v>
+        <v>9.042137949753169</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.440593088014601</v>
+        <v>7.414850051286898</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>11.04115962354401</v>
+        <v>11.12934068365257</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>5.588258551238432</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>8.318388491001292</v>
+        <v>8.318388491001294</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.927310666610278</v>
@@ -965,7 +965,7 @@
         <v>5.086159274586273</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.878771462250978</v>
+        <v>6.87877146225098</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.722469903143764</v>
+        <v>3.573626194363885</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.328146986284822</v>
+        <v>2.346701744020106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.444863782729369</v>
+        <v>2.472550055481614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.125078610310107</v>
+        <v>2.159827121824843</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.548796544959516</v>
+        <v>2.622754256440752</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.332206344069625</v>
+        <v>3.210552049734946</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.773126700722541</v>
+        <v>3.704425693388771</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.293272307254305</v>
+        <v>4.156720627974996</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.576700887328465</v>
+        <v>3.468039984812401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.175731312086372</v>
+        <v>3.287204533036805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.732503404313911</v>
+        <v>3.727240574734985</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>4.003836744162107</v>
+        <v>3.896605044356871</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.858366169793788</v>
+        <v>8.66036096635564</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.405720162936321</v>
+        <v>4.513141687251572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.743626229735758</v>
+        <v>8.63550618475956</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.3414234755503</v>
+        <v>14.26993192905558</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.540154132827952</v>
+        <v>6.661045845024725</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.14312055238983</v>
+        <v>10.00146886602494</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.551600513933983</v>
+        <v>7.678180765143458</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.9468822588785</v>
+        <v>14.45031246781867</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.766365950319402</v>
+        <v>6.774312267032245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.052163234642881</v>
+        <v>6.997730985837629</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.144226729391198</v>
+        <v>7.369443916342552</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>11.90174967604555</v>
+        <v>12.25897337703856</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>13.26308098285952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.176724344000531</v>
+        <v>8.176724344000529</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>5.294171836654844</v>
@@ -1089,7 +1089,7 @@
         <v>7.178667639163311</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>5.131302859253944</v>
+        <v>5.131302859253943</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>8.188128861742172</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.165899839837844</v>
+        <v>5.537722168301173</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.838191310283894</v>
+        <v>2.772583038142828</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.833591907455528</v>
+        <v>4.905855068355447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.870159735039105</v>
+        <v>5.950314627056271</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.331967091585862</v>
+        <v>2.979708349764587</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.570272419708431</v>
+        <v>3.631618683444378</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>4.555407441952755</v>
+        <v>4.325415199984946</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.65409425644907</v>
+        <v>3.644283133066608</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.023081779936158</v>
+        <v>4.752616544730222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.553789686772198</v>
+        <v>3.578914773578968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5.815385294171308</v>
+        <v>5.569556073354689</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5.23958349016591</v>
+        <v>5.052596290347705</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.63782073612311</v>
+        <v>23.85124956329961</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.946208132943915</v>
+        <v>4.921513439239708</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36.52524249759124</v>
+        <v>38.43531654738072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.92371786749762</v>
+        <v>13.6013744591248</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>11.50347241280239</v>
+        <v>10.9357026356577</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.916394252388082</v>
+        <v>8.817248426619487</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.19045449936092</v>
+        <v>10.95353764327739</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.621082612463786</v>
+        <v>7.797535056338586</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>15.88965499689178</v>
+        <v>14.63331830864445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.613081656980834</v>
+        <v>6.766192374068672</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.26012792245395</v>
+        <v>19.1293734060922</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>9.506246735439042</v>
+        <v>9.328988025306154</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>7.082196950616122</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6.838856518604161</v>
+        <v>6.838856518604159</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.89299966298296</v>
+        <v>5.139572512069681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.063993603897839</v>
+        <v>4.055432992212985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.533471897069924</v>
+        <v>5.568860939153818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.508443469150698</v>
+        <v>5.540522790050814</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.4725717315461</v>
+        <v>3.45497851759894</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.472040841686251</v>
+        <v>4.470541497295573</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.958348351847587</v>
+        <v>4.860206877520444</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.595760367905418</v>
+        <v>4.556993525985324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.400961894915395</v>
+        <v>4.381933293559089</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4.603107830476437</v>
+        <v>4.564397349359282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5.667537661511813</v>
+        <v>5.771761373100526</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>5.507962428046927</v>
+        <v>5.553277181593646</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.43175847183978</v>
+        <v>12.65488297389323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.57447700555607</v>
+        <v>7.540923239571343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.21244606393139</v>
+        <v>13.34155123036722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.514824287719</v>
+        <v>10.58868311399046</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.033241304464847</v>
+        <v>6.151652195921756</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.016745122395586</v>
+        <v>6.997508564011495</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.142741666847714</v>
+        <v>7.997831207279748</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.032154309919983</v>
+        <v>8.916436239811325</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.732130417852725</v>
+        <v>7.618825962286962</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.647671056948028</v>
+        <v>6.651410381990642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.92363622916168</v>
+        <v>9.915048830207882</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.788705302190841</v>
+        <v>9.009110595686836</v>
       </c>
     </row>
     <row r="19">
